--- a/belgium.xlsx
+++ b/belgium.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Belgium</t>
   </si>
@@ -63,48 +63,6 @@
   </si>
   <si>
     <t>Confidence in national government</t>
-  </si>
-  <si>
-    <t>Democratic Quality</t>
-  </si>
-  <si>
-    <t>Delivery Quality</t>
-  </si>
-  <si>
-    <t>Standard deviation of ladder by country-year</t>
-  </si>
-  <si>
-    <t>Standard deviation/Mean of ladder by country-year</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate), average 2000-13</t>
-  </si>
-  <si>
-    <t>gini of household income reported in Gallup, by wp5-year</t>
-  </si>
-  <si>
-    <t>Most people can be trusted, Gallup</t>
-  </si>
-  <si>
-    <t>Most people can be trusted, WVS round 1981-1984</t>
-  </si>
-  <si>
-    <t>Most people can be trusted, WVS round 1989-1993</t>
-  </si>
-  <si>
-    <t>Most people can be trusted, WVS round 1994-1998</t>
-  </si>
-  <si>
-    <t>Most people can be trusted, WVS round 1999-2004</t>
-  </si>
-  <si>
-    <t>Most people can be trusted, WVS round 2005-2009</t>
-  </si>
-  <si>
-    <t>Most people can be trusted, WVS round 2010-2014</t>
   </si>
 </sst>
 </file>
@@ -463,7 +421,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -505,48 +463,20 @@
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -585,24 +515,12 @@
       <c r="L2" s="2">
         <v>0.60223829746246338</v>
       </c>
-      <c r="M2" s="2">
-        <v>1.0760806798934937</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.4071228504180908</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.4664214849472046</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.20313811302185059</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.29570000000000002</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.28954444444444444</v>
-      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -649,24 +567,12 @@
       <c r="L3" s="2">
         <v>0.46313706040382385</v>
       </c>
-      <c r="M3" s="2">
-        <v>0.98407763242721558</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.3562759160995483</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.5281691551208496</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.2147333174943924</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.28954444444444444</v>
-      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
@@ -707,30 +613,14 @@
       <c r="L4" s="2">
         <v>0.33651646971702576</v>
       </c>
-      <c r="M4" s="2">
-        <v>1.0817575454711914</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.433052659034729</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.6033521890640259</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.23394599556922913</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.2853</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.28954444444444444</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.39378064870834351</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0.30612081289291382</v>
-      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -769,27 +659,13 @@
       <c r="L5" s="2">
         <v>0.28912946581840515</v>
       </c>
-      <c r="M5" s="2">
-        <v>1.1390128135681152</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.4654334783554077</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.6285082101821899</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.22900082170963287</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.2843</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.28954444444444444</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.44731539487838745</v>
-      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -829,27 +705,13 @@
       <c r="L6" s="2">
         <v>0.44011718034744263</v>
       </c>
-      <c r="M6" s="2">
-        <v>1.1249669790267944</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.4392827749252319</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.8340679407119751</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.26446080207824707</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.27589999999999998</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.28954444444444444</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.3273201584815979</v>
-      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -889,25 +751,13 @@
       <c r="L7" s="2">
         <v>0.55412453413009644</v>
       </c>
-      <c r="M7" s="2">
-        <v>1.1455119848251343</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.4772804975509644</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.5017786026000977</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.21140910685062408</v>
-      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="2">
-        <v>0.28954444444444444</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.33004093170166016</v>
-      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -947,25 +797,13 @@
       <c r="L8" s="2">
         <v>0.46911162137985229</v>
       </c>
-      <c r="M8" s="2">
-        <v>1.0507067441940308</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1.4090126752853394</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1.6810741424560547</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.24522151052951813</v>
-      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="2">
-        <v>0.28954444444444444</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.40256363153457642</v>
-      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1007,19 +845,11 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="2">
-        <v>1.5118108987808228</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.21896913647651672</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="2">
-        <v>0.28954444444444444</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.4038245677947998</v>
-      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1061,19 +891,11 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="2">
-        <v>1.4970237016677856</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.2154320627450943</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="2">
-        <v>0.28954444444444444</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.34862980246543884</v>
-      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="1"/>
     </row>
   </sheetData>
